--- a/data/trans_bre/P16A97-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A97-Habitat-trans_bre.xlsx
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 15,71</t>
+          <t>-4,55; 16,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 30,7</t>
+          <t>-3,72; 29,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 24,71</t>
+          <t>-6,96; 25,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,33; 803,73</t>
+          <t>-58,45; 825,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 203,09</t>
+          <t>-18,0; 180,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 157,57</t>
+          <t>-27,73; 157,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 10,34</t>
+          <t>1,55; 10,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 22,05</t>
+          <t>6,84; 21,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,34; 21,5</t>
+          <t>8,11; 20,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,42; 233,09</t>
+          <t>19,1; 249,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,88; 132,28</t>
+          <t>29,61; 125,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>54,92; 224,96</t>
+          <t>54,51; 213,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,41</t>
+          <t>4,42; 11,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 24,01</t>
+          <t>12,97; 24,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 17,23</t>
+          <t>7,26; 17,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,37; 446,23</t>
+          <t>93,58; 460,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,42; 153,34</t>
+          <t>63,79; 159,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>46,34; 148,78</t>
+          <t>43,98; 141,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 7,97</t>
+          <t>-0,22; 7,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,0; 24,45</t>
+          <t>11,88; 24,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 12,26</t>
+          <t>1,83; 12,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 239,42</t>
+          <t>-9,6; 211,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,79; 205,48</t>
+          <t>69,05; 208,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,4; 132,96</t>
+          <t>14,54; 136,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,44</t>
+          <t>2,63; 8,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,53; 24,46</t>
+          <t>13,22; 24,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 16,69</t>
+          <t>7,0; 16,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,54; 347,58</t>
+          <t>55,06; 369,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,63; 157,06</t>
+          <t>66,12; 156,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>45,82; 162,02</t>
+          <t>45,86; 164,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,6</t>
+          <t>4,19; 7,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,47; 20,66</t>
+          <t>14,61; 20,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,43; 13,66</t>
+          <t>8,52; 13,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>81,11; 208,63</t>
+          <t>84,85; 204,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>76,17; 126,52</t>
+          <t>76,18; 125,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>61,28; 117,09</t>
+          <t>60,71; 115,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P16A97-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A97-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 16,05</t>
+          <t>-3,83; 17,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 29,78</t>
+          <t>-7,02; 28,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 25,96</t>
+          <t>-7,48; 27,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 825,86</t>
+          <t>-61,85; 726,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 180,22</t>
+          <t>-23,16; 189,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 157,58</t>
+          <t>-24,72; 176,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 10,36</t>
+          <t>1,85; 10,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 21,76</t>
+          <t>6,16; 21,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 20,81</t>
+          <t>8,15; 21,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,1; 249,2</t>
+          <t>22,73; 249,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,61; 125,57</t>
+          <t>28,2; 127,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>54,51; 213,67</t>
+          <t>50,88; 211,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,15</t>
+          <t>4,86; 11,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,97; 24,81</t>
+          <t>12,71; 24,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 17,01</t>
+          <t>7,5; 17,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,58; 460,54</t>
+          <t>101,59; 454,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,79; 159,43</t>
+          <t>63,14; 158,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>43,98; 141,56</t>
+          <t>46,85; 148,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,45</t>
+          <t>0,32; 8,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,88; 24,33</t>
+          <t>11,77; 24,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 12,07</t>
+          <t>1,73; 12,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 211,02</t>
+          <t>0,02; 225,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,05; 208,53</t>
+          <t>66,58; 199,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 136,89</t>
+          <t>12,36; 134,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,63</t>
+          <t>2,53; 8,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,22; 24,29</t>
+          <t>12,37; 23,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 16,84</t>
+          <t>6,5; 16,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,06; 369,89</t>
+          <t>57,17; 345,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,12; 156,38</t>
+          <t>57,66; 150,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>45,86; 164,13</t>
+          <t>42,79; 162,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,55</t>
+          <t>4,17; 7,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,61; 20,66</t>
+          <t>14,37; 20,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,55</t>
+          <t>8,4; 13,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>84,85; 204,92</t>
+          <t>84,86; 214,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>76,18; 125,47</t>
+          <t>76,04; 125,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>60,71; 115,06</t>
+          <t>59,94; 115,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
